--- a/Metadata_prepared_to_openBIS.xlsx
+++ b/Metadata_prepared_to_openBIS.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3861" uniqueCount="838">
   <si>
     <t>VOCABULARY_TYPE</t>
   </si>
@@ -2294,6 +2294,246 @@
   </si>
   <si>
     <t>Feng Group</t>
+  </si>
+  <si>
+    <t>2D_QUANTUM_MATERIALS</t>
+  </si>
+  <si>
+    <t>ATOMISTIC_SIMULATIONS</t>
+  </si>
+  <si>
+    <t>CARBON_NANOMATERIALS</t>
+  </si>
+  <si>
+    <t>FUNCTIONAL_SURFACES</t>
+  </si>
+  <si>
+    <t>MATERIALS_TO_DEVICES</t>
+  </si>
+  <si>
+    <t>EQUIPMENT</t>
+  </si>
+  <si>
+    <t>FUNDING</t>
+  </si>
+  <si>
+    <t>INSTITUTIONS</t>
+  </si>
+  <si>
+    <t>LOG_ENTRIES</t>
+  </si>
+  <si>
+    <t>MATERIALS</t>
+  </si>
+  <si>
+    <t>METHODS</t>
+  </si>
+  <si>
+    <t>PUBLICATIONS</t>
+  </si>
+  <si>
+    <t>2D Quantum Materials</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Funding</t>
+  </si>
+  <si>
+    <t>Institutions</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Publications</t>
+  </si>
+  <si>
+    <t>Atomistic Simulations</t>
+  </si>
+  <si>
+    <t>Carbon Nanomaterials</t>
+  </si>
+  <si>
+    <t>Functional Surfaces</t>
+  </si>
+  <si>
+    <t>Materials to Devices</t>
+  </si>
+  <si>
+    <t>Log Entries</t>
+  </si>
+  <si>
+    <t>PUBLIC_REPOSITORIES</t>
+  </si>
+  <si>
+    <t>MOLECULES</t>
+  </si>
+  <si>
+    <t>CRYSTALS</t>
+  </si>
+  <si>
+    <t>ATOMISTIC_MODELS</t>
+  </si>
+  <si>
+    <t>ROOMS</t>
+  </si>
+  <si>
+    <t>MANUFACTURERS</t>
+  </si>
+  <si>
+    <t>EMPA</t>
+  </si>
+  <si>
+    <t>SNF</t>
+  </si>
+  <si>
+    <t>SCANNING_PROBE</t>
+  </si>
+  <si>
+    <t>OPTICS</t>
+  </si>
+  <si>
+    <t>INSTRUMENTS</t>
+  </si>
+  <si>
+    <t>COMPONENTS</t>
+  </si>
+  <si>
+    <t>TRIANGULENE_SPIN_CHAINS</t>
+  </si>
+  <si>
+    <t>Molecules</t>
+  </si>
+  <si>
+    <t>Crystals</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>Empa</t>
+  </si>
+  <si>
+    <t>Optics</t>
+  </si>
+  <si>
+    <t>Instruments</t>
+  </si>
+  <si>
+    <t>Public Repositories</t>
+  </si>
+  <si>
+    <t>Atomistic Models</t>
+  </si>
+  <si>
+    <t>Scanning Probe</t>
+  </si>
+  <si>
+    <t>Components</t>
+  </si>
+  <si>
+    <t>Triangulene Spin Chains</t>
+  </si>
+  <si>
+    <t>DEFAULT_EXPERIMENT</t>
+  </si>
+  <si>
+    <t>TRIANGULENE_SPIN_CHAINS_EXP_1</t>
+  </si>
+  <si>
+    <t>531a on Au</t>
+  </si>
+  <si>
+    <t>DRAFTS</t>
+  </si>
+  <si>
+    <t>Drafts</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>UHV_COMPONENTS</t>
+  </si>
+  <si>
+    <t>UHV Components</t>
+  </si>
+  <si>
+    <t>EMPA_GRANTS</t>
+  </si>
+  <si>
+    <t>Empa Grants</t>
+  </si>
+  <si>
+    <t>SNF_GRANTS</t>
+  </si>
+  <si>
+    <t>MAINTENANCES</t>
+  </si>
+  <si>
+    <t>Maintenances</t>
+  </si>
+  <si>
+    <t>CRYSTALS_REAL</t>
+  </si>
+  <si>
+    <t>CRYSTALS_THEORY</t>
+  </si>
+  <si>
+    <t>MOLECULES_PRECURSOR</t>
+  </si>
+  <si>
+    <t>MOLECULES_PRODUCT</t>
+  </si>
+  <si>
+    <t>MOLECULES_THEORY</t>
+  </si>
+  <si>
+    <t>CHEMISTS</t>
+  </si>
+  <si>
+    <t>AUTHORS</t>
+  </si>
+  <si>
+    <t>RESEARCHERS</t>
+  </si>
+  <si>
+    <t>Crystals (Real)</t>
+  </si>
+  <si>
+    <t>Crystals (Theory)</t>
+  </si>
+  <si>
+    <t>Molecules (Precursor)</t>
+  </si>
+  <si>
+    <t>Molecules (Product)</t>
+  </si>
+  <si>
+    <t>Molecules (Theory)</t>
+  </si>
+  <si>
+    <t>Researchers</t>
+  </si>
+  <si>
+    <t>Chemists</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>PUBLICATION</t>
   </si>
 </sst>
 </file>
@@ -2635,7 +2875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K834"/>
   <sheetViews>
-    <sheetView topLeftCell="A783" workbookViewId="0"/>
+    <sheetView topLeftCell="A779" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -19869,28 +20109,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -19898,166 +20139,727 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>758</v>
+      </c>
+      <c r="B3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>759</v>
+      </c>
+      <c r="B4" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>761</v>
+      </c>
+      <c r="B6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>762</v>
+      </c>
+      <c r="B7" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>763</v>
+      </c>
+      <c r="B8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>764</v>
+      </c>
+      <c r="B9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>765</v>
+      </c>
+      <c r="B10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>766</v>
+      </c>
+      <c r="B11" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>768</v>
+      </c>
+      <c r="B13" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>752</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B14" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>769</v>
+      </c>
+      <c r="B15" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C18" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>752</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B19" t="s">
         <v>753</v>
-      </c>
-      <c r="C7" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>742</v>
-      </c>
-      <c r="C12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D12" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>754</v>
-      </c>
-      <c r="B13" t="s">
-        <v>752</v>
-      </c>
-      <c r="C13" t="s">
-        <v>755</v>
-      </c>
-      <c r="D13" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>750</v>
-      </c>
-      <c r="B18" t="s">
-        <v>739</v>
-      </c>
-      <c r="C18" t="s">
-        <v>742</v>
-      </c>
-      <c r="D18" t="s">
-        <v>746</v>
-      </c>
-      <c r="E18" t="s">
-        <v>747</v>
-      </c>
-      <c r="F18" t="s">
-        <v>748</v>
-      </c>
-      <c r="G18" t="s">
-        <v>749</v>
-      </c>
-      <c r="H18" t="s">
-        <v>152</v>
-      </c>
-      <c r="I18" t="s">
-        <v>231</v>
-      </c>
-      <c r="J18" t="s">
-        <v>233</v>
-      </c>
-      <c r="K18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>752</v>
       </c>
       <c r="C19" t="s">
         <v>752</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>782</v>
+      </c>
+      <c r="B20" t="s">
+        <v>802</v>
+      </c>
+      <c r="C20" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>783</v>
+      </c>
+      <c r="B21" t="s">
+        <v>795</v>
+      </c>
+      <c r="C21" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>784</v>
+      </c>
+      <c r="B22" t="s">
+        <v>796</v>
+      </c>
+      <c r="C22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>785</v>
+      </c>
+      <c r="B23" t="s">
+        <v>803</v>
+      </c>
+      <c r="C23" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>766</v>
+      </c>
+      <c r="B24" t="s">
+        <v>781</v>
+      </c>
+      <c r="C24" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>754</v>
       </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="B25" t="s">
+        <v>755</v>
+      </c>
+      <c r="C25" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>786</v>
+      </c>
+      <c r="B26" t="s">
+        <v>797</v>
+      </c>
+      <c r="C26" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>787</v>
+      </c>
+      <c r="B27" t="s">
+        <v>798</v>
+      </c>
+      <c r="C27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>765</v>
+      </c>
+      <c r="B28" t="s">
+        <v>773</v>
+      </c>
+      <c r="C28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>788</v>
+      </c>
+      <c r="B29" t="s">
+        <v>799</v>
+      </c>
+      <c r="C29" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>789</v>
+      </c>
+      <c r="B30" t="s">
+        <v>789</v>
+      </c>
+      <c r="C30" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B31" t="s">
+        <v>804</v>
+      </c>
+      <c r="C31" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>791</v>
+      </c>
+      <c r="B32" t="s">
+        <v>800</v>
+      </c>
+      <c r="C32" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>792</v>
+      </c>
+      <c r="B33" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>793</v>
+      </c>
+      <c r="B34" t="s">
+        <v>805</v>
+      </c>
+      <c r="C34" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>794</v>
+      </c>
+      <c r="B35" t="s">
+        <v>806</v>
+      </c>
+      <c r="C35" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>742</v>
+      </c>
+      <c r="C40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>808</v>
+      </c>
+      <c r="B41" t="s">
+        <v>794</v>
+      </c>
+      <c r="C41" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" t="s">
+        <v>742</v>
+      </c>
+      <c r="C44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>754</v>
+      </c>
+      <c r="B45" t="s">
+        <v>765</v>
+      </c>
+      <c r="C45" t="s">
+        <v>755</v>
+      </c>
+      <c r="D45" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>810</v>
+      </c>
+      <c r="B46" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" t="s">
+        <v>811</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>812</v>
+      </c>
+      <c r="B47" t="s">
+        <v>794</v>
+      </c>
+      <c r="C47" t="s">
+        <v>813</v>
+      </c>
+      <c r="D47" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>814</v>
+      </c>
+      <c r="B48" t="s">
+        <v>793</v>
+      </c>
+      <c r="C48" t="s">
+        <v>815</v>
+      </c>
+      <c r="D48" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>792</v>
+      </c>
+      <c r="B49" t="s">
+        <v>792</v>
+      </c>
+      <c r="C49" t="s">
+        <v>801</v>
+      </c>
+      <c r="D49" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>816</v>
+      </c>
+      <c r="B50" t="s">
+        <v>788</v>
+      </c>
+      <c r="C50" t="s">
+        <v>817</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>818</v>
+      </c>
+      <c r="B51" t="s">
+        <v>789</v>
+      </c>
+      <c r="C51" t="s">
+        <v>789</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>765</v>
+      </c>
+      <c r="B52" t="s">
+        <v>765</v>
+      </c>
+      <c r="C52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D52" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>786</v>
+      </c>
+      <c r="B53" t="s">
+        <v>786</v>
+      </c>
+      <c r="C53" t="s">
+        <v>797</v>
+      </c>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>819</v>
+      </c>
+      <c r="B54" t="s">
+        <v>766</v>
+      </c>
+      <c r="C54" t="s">
+        <v>820</v>
+      </c>
+      <c r="D54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>821</v>
+      </c>
+      <c r="B55" t="s">
+        <v>784</v>
+      </c>
+      <c r="C55" t="s">
+        <v>829</v>
+      </c>
+      <c r="D55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>822</v>
+      </c>
+      <c r="B56" t="s">
+        <v>784</v>
+      </c>
+      <c r="C56" t="s">
+        <v>830</v>
+      </c>
+      <c r="D56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>823</v>
+      </c>
+      <c r="B57" t="s">
+        <v>783</v>
+      </c>
+      <c r="C57" t="s">
+        <v>831</v>
+      </c>
+      <c r="D57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>824</v>
+      </c>
+      <c r="B58" t="s">
+        <v>783</v>
+      </c>
+      <c r="C58" t="s">
+        <v>832</v>
+      </c>
+      <c r="D58" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>825</v>
+      </c>
+      <c r="B59" t="s">
+        <v>783</v>
+      </c>
+      <c r="C59" t="s">
+        <v>833</v>
+      </c>
+      <c r="D59" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>828</v>
+      </c>
+      <c r="B60" t="s">
+        <v>752</v>
+      </c>
+      <c r="C60" t="s">
+        <v>834</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>827</v>
+      </c>
+      <c r="B61" t="s">
+        <v>752</v>
+      </c>
+      <c r="C61" t="s">
+        <v>836</v>
+      </c>
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>826</v>
+      </c>
+      <c r="B62" t="s">
+        <v>752</v>
+      </c>
+      <c r="C62" t="s">
+        <v>835</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>769</v>
+      </c>
+      <c r="B63" t="s">
+        <v>782</v>
+      </c>
+      <c r="C63" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>750</v>
+      </c>
+      <c r="B68" t="s">
+        <v>739</v>
+      </c>
+      <c r="C68" t="s">
+        <v>742</v>
+      </c>
+      <c r="D68" t="s">
+        <v>746</v>
+      </c>
+      <c r="E68" t="s">
+        <v>747</v>
+      </c>
+      <c r="F68" t="s">
+        <v>748</v>
+      </c>
+      <c r="G68" t="s">
+        <v>749</v>
+      </c>
+      <c r="H68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I68" t="s">
+        <v>231</v>
+      </c>
+      <c r="J68" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>752</v>
+      </c>
+      <c r="C69" t="s">
+        <v>752</v>
+      </c>
+      <c r="D69" t="s">
+        <v>754</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>752</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C70" t="s">
         <v>752</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D70" t="s">
         <v>754</v>
       </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
         <v>757</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
